--- a/WorkLogTemp/Dev/个人周报模板.xlsx
+++ b/WorkLogTemp/Dev/个人周报模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mei\VSRepos\WorkLog\WorkLogTemp\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkDir\老秦项目\WorkLog\WorkLogTemp\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96679A8B-909C-43AD-AF8A-CC04AB3ADFBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52448582-A60D-4E0A-B6B1-2A473E4175D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="14955" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人姓名" sheetId="6" r:id="rId1"/>
@@ -276,38 +276,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -316,41 +316,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,15 +640,17 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
-    <col min="3" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -666,33 +671,33 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
@@ -709,79 +714,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="5"/>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="5"/>
       <c r="F8" s="8"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="5"/>
       <c r="F10" s="8"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="5"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
@@ -790,12 +795,12 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -823,12 +828,12 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
